--- a/code/merged_excel.xlsx
+++ b/code/merged_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>表面风化</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -582,6 +587,9 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +648,9 @@
       <c r="R3" t="n">
         <v>1</v>
       </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,6 +709,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,6 +770,9 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -814,6 +831,9 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -872,6 +892,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -930,6 +953,9 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,6 +1014,9 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1046,6 +1075,9 @@
       <c r="R10" t="n">
         <v>1</v>
       </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1104,6 +1136,9 @@
       <c r="R11" t="n">
         <v>1</v>
       </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1162,6 +1197,9 @@
       <c r="R12" t="n">
         <v>1</v>
       </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1220,6 +1258,9 @@
       <c r="R13" t="n">
         <v>1</v>
       </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1278,6 +1319,9 @@
       <c r="R14" t="n">
         <v>1</v>
       </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1336,6 +1380,9 @@
       <c r="R15" t="n">
         <v>1</v>
       </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1394,6 +1441,9 @@
       <c r="R16" t="n">
         <v>1</v>
       </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1452,6 +1502,9 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1510,6 +1563,9 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1568,6 +1624,9 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1626,6 +1685,9 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1684,6 +1746,9 @@
       <c r="R21" t="n">
         <v>1</v>
       </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1742,6 +1807,9 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1800,6 +1868,9 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1858,6 +1929,9 @@
       <c r="R24" t="n">
         <v>1</v>
       </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1916,6 +1990,9 @@
       <c r="R25" t="n">
         <v>1</v>
       </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1974,6 +2051,9 @@
       <c r="R26" t="n">
         <v>0</v>
       </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2032,6 +2112,9 @@
       <c r="R27" t="n">
         <v>1</v>
       </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2090,6 +2173,9 @@
       <c r="R28" t="n">
         <v>1</v>
       </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2148,6 +2234,9 @@
       <c r="R29" t="n">
         <v>1</v>
       </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2206,6 +2295,9 @@
       <c r="R30" t="n">
         <v>1</v>
       </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2264,6 +2356,9 @@
       <c r="R31" t="n">
         <v>1</v>
       </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2322,6 +2417,9 @@
       <c r="R32" t="n">
         <v>1</v>
       </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2380,6 +2478,9 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2438,6 +2539,9 @@
       <c r="R34" t="n">
         <v>0</v>
       </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2496,6 +2600,9 @@
       <c r="R35" t="n">
         <v>0</v>
       </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2554,6 +2661,9 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2612,6 +2722,9 @@
       <c r="R37" t="n">
         <v>0</v>
       </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2670,6 +2783,9 @@
       <c r="R38" t="n">
         <v>1</v>
       </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2728,6 +2844,9 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2786,6 +2905,9 @@
       <c r="R40" t="n">
         <v>1</v>
       </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2844,6 +2966,9 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2902,6 +3027,9 @@
       <c r="R42" t="n">
         <v>1</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2960,6 +3088,9 @@
       <c r="R43" t="n">
         <v>1</v>
       </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3018,6 +3149,9 @@
       <c r="R44" t="n">
         <v>1</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3076,6 +3210,9 @@
       <c r="R45" t="n">
         <v>1</v>
       </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3134,6 +3271,9 @@
       <c r="R46" t="n">
         <v>1</v>
       </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3192,6 +3332,9 @@
       <c r="R47" t="n">
         <v>1</v>
       </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3250,6 +3393,9 @@
       <c r="R48" t="n">
         <v>1</v>
       </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3308,6 +3454,9 @@
       <c r="R49" t="n">
         <v>1</v>
       </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3366,6 +3515,9 @@
       <c r="R50" t="n">
         <v>1</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3424,6 +3576,9 @@
       <c r="R51" t="n">
         <v>0</v>
       </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3482,6 +3637,9 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3540,6 +3698,9 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3598,6 +3759,9 @@
       <c r="R54" t="n">
         <v>1</v>
       </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3656,6 +3820,9 @@
       <c r="R55" t="n">
         <v>1</v>
       </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3714,6 +3881,9 @@
       <c r="R56" t="n">
         <v>1</v>
       </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3772,6 +3942,9 @@
       <c r="R57" t="n">
         <v>1</v>
       </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3830,6 +4003,9 @@
       <c r="R58" t="n">
         <v>1</v>
       </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3888,6 +4064,9 @@
       <c r="R59" t="n">
         <v>1</v>
       </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3946,6 +4125,9 @@
       <c r="R60" t="n">
         <v>1</v>
       </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4004,6 +4186,9 @@
       <c r="R61" t="n">
         <v>1</v>
       </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4062,6 +4247,9 @@
       <c r="R62" t="n">
         <v>1</v>
       </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4120,6 +4308,9 @@
       <c r="R63" t="n">
         <v>1</v>
       </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4178,6 +4369,9 @@
       <c r="R64" t="n">
         <v>1</v>
       </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4236,6 +4430,9 @@
       <c r="R65" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4294,6 +4491,9 @@
       <c r="R66" t="n">
         <v>1</v>
       </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4352,6 +4552,9 @@
       <c r="R67" t="n">
         <v>1</v>
       </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4409,6 +4612,9 @@
       </c>
       <c r="R68" t="n">
         <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
